--- a/input/Inverse1_Boyle.xlsx
+++ b/input/Inverse1_Boyle.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1497446609902782</v>
+        <v>0.07512042055345571</v>
       </c>
       <c r="C2" t="n">
-        <v>102.9205643801101</v>
+        <v>100.2386046567292</v>
       </c>
       <c r="D2" t="n">
-        <v>4.79513792808913</v>
+        <v>7.258908554471414</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1.642857142857143</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1132174273400426</v>
+        <v>0.1104829761145092</v>
       </c>
       <c r="C3" t="n">
-        <v>60.28176290775357</v>
+        <v>61.94845412858466</v>
       </c>
       <c r="D3" t="n">
-        <v>1.532009617268185</v>
+        <v>4.387980000158048</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2.285714285714286</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1297537644676463</v>
+        <v>0.07781958185570878</v>
       </c>
       <c r="C4" t="n">
-        <v>42.71805935199113</v>
+        <v>43.26026846297344</v>
       </c>
       <c r="D4" t="n">
-        <v>2.796597517136615</v>
+        <v>1.139915756830903</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2.928571428571429</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1170525265161112</v>
+        <v>0.1361248479443644</v>
       </c>
       <c r="C5" t="n">
-        <v>35.74312146587851</v>
+        <v>34.5374730673197</v>
       </c>
       <c r="D5" t="n">
-        <v>1.910772458791611</v>
+        <v>1.012189588113415</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>3.571428571428572</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07130286534501031</v>
+        <v>0.1035225351099934</v>
       </c>
       <c r="C6" t="n">
-        <v>28.37620022942622</v>
+        <v>27.01537521275104</v>
       </c>
       <c r="D6" t="n">
-        <v>1.203843449001375</v>
+        <v>1.348559377764242</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>4.214285714285714</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08761944079128331</v>
+        <v>0.1000806499181118</v>
       </c>
       <c r="C7" t="n">
-        <v>23.30243769597173</v>
+        <v>24.14640749727333</v>
       </c>
       <c r="D7" t="n">
-        <v>1.72610001684689</v>
+        <v>1.539107627242321</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>4.857142857142858</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08950589675147064</v>
+        <v>0.08747412445936389</v>
       </c>
       <c r="C8" t="n">
-        <v>21.13216019440357</v>
+        <v>21.46097653845152</v>
       </c>
       <c r="D8" t="n">
-        <v>1.279453412216433</v>
+        <v>1.106223817213171</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>5.5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.135852717298348</v>
+        <v>0.06458179522492154</v>
       </c>
       <c r="C9" t="n">
-        <v>18.5614916289235</v>
+        <v>18.38813779611064</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5340259936763974</v>
+        <v>0.6229751598288759</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>6.142857142857143</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1227567797097199</v>
+        <v>0.06631390136163083</v>
       </c>
       <c r="C10" t="n">
-        <v>15.03067406842586</v>
+        <v>16.40182690790442</v>
       </c>
       <c r="D10" t="n">
-        <v>0.681521932598527</v>
+        <v>1.202474338343891</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>6.785714285714286</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1399360560816753</v>
+        <v>0.1291271735426476</v>
       </c>
       <c r="C11" t="n">
-        <v>15.50863743425161</v>
+        <v>14.21161874149468</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8653623999474072</v>
+        <v>0.7636113497023628</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>7.428571428571429</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1297411330770707</v>
+        <v>0.1498729653257748</v>
       </c>
       <c r="C12" t="n">
-        <v>13.44469434868206</v>
+        <v>13.57640760789033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9642751631202995</v>
+        <v>0.351266134607137</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>8.071428571428573</v>
       </c>
       <c r="B13" t="n">
-        <v>0.141755216425138</v>
+        <v>0.1016548188108866</v>
       </c>
       <c r="C13" t="n">
-        <v>12.28924628270349</v>
+        <v>12.60988953203615</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7367239470946029</v>
+        <v>0.4325746427257349</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>8.714285714285715</v>
       </c>
       <c r="B14" t="n">
-        <v>0.142396141710412</v>
+        <v>0.1114655443483998</v>
       </c>
       <c r="C14" t="n">
-        <v>11.58095028188766</v>
+        <v>11.67184835726648</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5694144412390647</v>
+        <v>0.3594826975873466</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>9.357142857142858</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1140766197744536</v>
+        <v>0.08424850625946717</v>
       </c>
       <c r="C15" t="n">
-        <v>10.56741106110841</v>
+        <v>11.0517883735593</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6012410649045199</v>
+        <v>0.7862088618125245</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1107640593238535</v>
+        <v>0.1434652470131056</v>
       </c>
       <c r="C16" t="n">
-        <v>10.05965049842981</v>
+        <v>9.814322806320668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4311142058354056</v>
+        <v>0.554749430032288</v>
       </c>
     </row>
   </sheetData>
